--- a/10/3/Comercio 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Comercio 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10474,6 +10477,50 @@
         <v>59.8</v>
       </c>
     </row>
+    <row r="215" spans="1:14">
+      <c r="A215" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215">
+        <v>39.5</v>
+      </c>
+      <c r="C215">
+        <v>62.3</v>
+      </c>
+      <c r="D215">
+        <v>61.8</v>
+      </c>
+      <c r="E215">
+        <v>61.8</v>
+      </c>
+      <c r="F215">
+        <v>80.3</v>
+      </c>
+      <c r="G215">
+        <v>55.3</v>
+      </c>
+      <c r="H215">
+        <v>56.1</v>
+      </c>
+      <c r="I215">
+        <v>54.4</v>
+      </c>
+      <c r="J215">
+        <v>62.7</v>
+      </c>
+      <c r="K215">
+        <v>61.8</v>
+      </c>
+      <c r="L215">
+        <v>56.6</v>
+      </c>
+      <c r="M215">
+        <v>3.7</v>
+      </c>
+      <c r="N215">
+        <v>61.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Comercio 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Comercio 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10521,6 +10524,50 @@
         <v>61.7</v>
       </c>
     </row>
+    <row r="216" spans="1:14">
+      <c r="A216" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216">
+        <v>39.3</v>
+      </c>
+      <c r="C216">
+        <v>53.3</v>
+      </c>
+      <c r="D216">
+        <v>61.7</v>
+      </c>
+      <c r="E216">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F216">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="G216">
+        <v>55.6</v>
+      </c>
+      <c r="H216">
+        <v>52.8</v>
+      </c>
+      <c r="I216">
+        <v>47.7</v>
+      </c>
+      <c r="J216">
+        <v>61.2</v>
+      </c>
+      <c r="K216">
+        <v>64.5</v>
+      </c>
+      <c r="L216">
+        <v>56.1</v>
+      </c>
+      <c r="M216">
+        <v>4.4</v>
+      </c>
+      <c r="N216">
+        <v>61.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Comercio 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Comercio 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N216"/>
+  <dimension ref="A1:N217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10568,6 +10571,50 @@
         <v>61.2</v>
       </c>
     </row>
+    <row r="217" spans="1:14">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217">
+        <v>38.7</v>
+      </c>
+      <c r="C217">
+        <v>57</v>
+      </c>
+      <c r="D217">
+        <v>60.9</v>
+      </c>
+      <c r="E217">
+        <v>74.8</v>
+      </c>
+      <c r="F217">
+        <v>88.7</v>
+      </c>
+      <c r="G217">
+        <v>57</v>
+      </c>
+      <c r="H217">
+        <v>48.7</v>
+      </c>
+      <c r="I217">
+        <v>25.2</v>
+      </c>
+      <c r="J217">
+        <v>51.7</v>
+      </c>
+      <c r="K217">
+        <v>57.4</v>
+      </c>
+      <c r="L217">
+        <v>48.7</v>
+      </c>
+      <c r="M217">
+        <v>4.8</v>
+      </c>
+      <c r="N217">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
